--- a/data/simulator_config_v3.xlsx
+++ b/data/simulator_config_v3.xlsx
@@ -1,33 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel\git\lab-events-simulator\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel\git\conveyors-system-des-library\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10DA6D46-B131-44BA-AC4F-35F0FBEBFAEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D7C468-DE55-4FE7-915B-182D13060E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{A49770C9-701F-43A8-9FA9-C3FBCD6AD4BA}"/>
+    <workbookView xWindow="40125" yWindow="6390" windowWidth="37020" windowHeight="21000" activeTab="1" xr2:uid="{A49770C9-701F-43A8-9FA9-C3FBCD6AD4BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="config_parser" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
   <si>
     <t>destiny</t>
   </si>
@@ -78,16 +87,136 @@
   </si>
   <si>
     <t>reverse</t>
+  </si>
+  <si>
+    <t>PT01</t>
+  </si>
+  <si>
+    <t>PT02</t>
+  </si>
+  <si>
+    <t>PT03</t>
+  </si>
+  <si>
+    <t>PT04</t>
+  </si>
+  <si>
+    <t>PT05</t>
+  </si>
+  <si>
+    <t>PT06</t>
+  </si>
+  <si>
+    <t>PT07</t>
+  </si>
+  <si>
+    <t>PT08</t>
+  </si>
+  <si>
+    <t>PT09</t>
+  </si>
+  <si>
+    <t>PT10</t>
+  </si>
+  <si>
+    <t>PT11</t>
+  </si>
+  <si>
+    <t>PT12</t>
+  </si>
+  <si>
+    <t>PT13</t>
+  </si>
+  <si>
+    <t>PT14</t>
+  </si>
+  <si>
+    <t>PT15</t>
+  </si>
+  <si>
+    <t>PT16</t>
+  </si>
+  <si>
+    <t>PT17</t>
+  </si>
+  <si>
+    <t>DIR01</t>
+  </si>
+  <si>
+    <t>DIR02</t>
+  </si>
+  <si>
+    <t>DIR03</t>
+  </si>
+  <si>
+    <t>DIR04</t>
+  </si>
+  <si>
+    <t>DIR05</t>
+  </si>
+  <si>
+    <t>DIR06</t>
+  </si>
+  <si>
+    <t>DIR07</t>
+  </si>
+  <si>
+    <t>DIR08</t>
+  </si>
+  <si>
+    <t>DIR09</t>
+  </si>
+  <si>
+    <t>DIR10</t>
+  </si>
+  <si>
+    <t>DIR11</t>
+  </si>
+  <si>
+    <t>DIR12</t>
+  </si>
+  <si>
+    <t>DIR13</t>
+  </si>
+  <si>
+    <t>DIR14</t>
+  </si>
+  <si>
+    <t>DIR15</t>
+  </si>
+  <si>
+    <t>DIR16</t>
+  </si>
+  <si>
+    <t>DIR17</t>
+  </si>
+  <si>
+    <t>DIR18</t>
+  </si>
+  <si>
+    <t>DIR19</t>
+  </si>
+  <si>
+    <t>DIR20</t>
+  </si>
+  <si>
+    <t>DIR21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -546,10 +675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B502A44-B3A8-490D-AC71-04B56DC6825D}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,14 +736,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D3" s="6">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
@@ -630,14 +759,14 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6">
-        <v>2</v>
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D4" s="6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -646,18 +775,18 @@
         <v>1</v>
       </c>
       <c r="J4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6">
-        <v>3</v>
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D5" s="6">
         <v>10</v>
@@ -669,18 +798,18 @@
         <v>1</v>
       </c>
       <c r="J5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6">
-        <v>4</v>
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="D6" s="6">
         <v>10</v>
@@ -699,15 +828,21 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6">
-        <v>5</v>
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="D7" s="6">
         <v>10</v>
       </c>
+      <c r="E7" s="6">
+        <v>10</v>
+      </c>
       <c r="F7" s="5">
         <v>0</v>
       </c>
@@ -722,13 +857,11 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <f>A7+1</f>
-        <v>5</v>
-      </c>
-      <c r="B8" s="6">
-        <f>B7+1</f>
-        <v>6</v>
+      <c r="A8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D8" s="6">
         <v>10</v>
@@ -747,13 +880,11 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <f t="shared" ref="A9:A35" si="0">A8+1</f>
-        <v>6</v>
-      </c>
-      <c r="B9" s="6">
-        <f t="shared" ref="B9:B34" si="1">B8+1</f>
-        <v>7</v>
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D9" s="6">
         <v>10</v>
@@ -772,13 +903,11 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="6">
-        <f t="shared" si="1"/>
-        <v>8</v>
+      <c r="A10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D10" s="6">
         <v>10</v>
@@ -797,17 +926,21 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
+      <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="D11" s="6">
         <v>10</v>
       </c>
+      <c r="E11" s="6">
+        <v>10</v>
+      </c>
       <c r="F11" s="5">
         <v>0</v>
       </c>
@@ -822,17 +955,21 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
+      <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D12" s="6">
         <v>10</v>
       </c>
+      <c r="E12" s="6">
+        <v>10</v>
+      </c>
       <c r="F12" s="5">
         <v>0</v>
       </c>
@@ -847,13 +984,11 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="6">
-        <f t="shared" si="1"/>
-        <v>11</v>
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="D13" s="6">
         <v>10</v>
@@ -872,13 +1007,11 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="6">
-        <f t="shared" si="1"/>
-        <v>12</v>
+      <c r="A14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="D14" s="6">
         <v>10</v>
@@ -897,13 +1030,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="6">
-        <f t="shared" si="1"/>
-        <v>13</v>
+      <c r="A15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="D15" s="6">
         <v>10</v>
@@ -922,13 +1053,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B16" s="6">
-        <f t="shared" si="1"/>
-        <v>14</v>
+      <c r="A16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D16" s="6">
         <v>10</v>
@@ -947,13 +1076,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B17" s="6">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="A17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="D17" s="6">
         <v>10</v>
@@ -972,17 +1099,21 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B18" s="6">
-        <f t="shared" si="1"/>
-        <v>16</v>
+      <c r="A18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="D18" s="6">
         <v>10</v>
       </c>
+      <c r="E18" s="6">
+        <v>10</v>
+      </c>
       <c r="F18" s="5">
         <v>0</v>
       </c>
@@ -997,13 +1128,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B19" s="6">
-        <f t="shared" si="1"/>
-        <v>17</v>
+      <c r="A19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="D19" s="6">
         <v>10</v>
@@ -1022,12 +1151,10 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B20" s="6">
-        <f t="shared" si="1"/>
+      <c r="A20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="6">
@@ -1047,13 +1174,11 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B21" s="6">
-        <f t="shared" si="1"/>
-        <v>19</v>
+      <c r="A21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D21" s="6">
         <v>10</v>
@@ -1072,12 +1197,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B22" s="6">
-        <f t="shared" si="1"/>
+      <c r="A22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="6">
@@ -1097,330 +1220,361 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <f t="shared" si="0"/>
+      <c r="A23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="6">
+        <v>10</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="6">
+        <v>10</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="6">
+        <v>10</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="6">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="D23" s="6">
-        <v>10</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6">
-        <v>1</v>
-      </c>
-      <c r="J23" s="6">
-        <v>0</v>
-      </c>
-      <c r="K23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B24" s="6">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="D24" s="6">
-        <v>10</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6">
-        <v>1</v>
-      </c>
-      <c r="J24" s="6">
-        <v>0</v>
-      </c>
-      <c r="K24" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B25" s="6">
-        <f t="shared" si="1"/>
+      <c r="D26" s="6">
+        <v>10</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="6">
+        <v>10</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="6">
-        <v>10</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6">
-        <v>1</v>
-      </c>
-      <c r="J25" s="6">
-        <v>0</v>
-      </c>
-      <c r="K25" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <f t="shared" si="0"/>
+      <c r="D28" s="6">
+        <v>10</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="6">
+        <v>10</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0</v>
+      </c>
+      <c r="K29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="6">
+        <v>10</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>1</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="6">
+        <v>10</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
+        <v>1</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="6">
+        <v>10</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6">
+        <v>1</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0</v>
+      </c>
+      <c r="K32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="6">
+        <v>10</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6">
+        <v>1</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="6">
+        <v>10</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0</v>
+      </c>
+      <c r="K34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="6">
+        <v>10</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6">
+        <v>1</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0</v>
+      </c>
+      <c r="K35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="6">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="D26" s="6">
-        <v>10</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6">
-        <v>1</v>
-      </c>
-      <c r="J26" s="6">
-        <v>0</v>
-      </c>
-      <c r="K26" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B27" s="6">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="D27" s="6">
-        <v>10</v>
-      </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="H27" s="6">
-        <v>1</v>
-      </c>
-      <c r="J27" s="6">
-        <v>0</v>
-      </c>
-      <c r="K27" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B28" s="6">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="D28" s="6">
-        <v>10</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="H28" s="6">
-        <v>1</v>
-      </c>
-      <c r="J28" s="6">
-        <v>0</v>
-      </c>
-      <c r="K28" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B29" s="6">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="D29" s="6">
-        <v>10</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0</v>
-      </c>
-      <c r="H29" s="6">
-        <v>1</v>
-      </c>
-      <c r="J29" s="6">
-        <v>0</v>
-      </c>
-      <c r="K29" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B30" s="6">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="D30" s="6">
-        <v>10</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6">
-        <v>1</v>
-      </c>
-      <c r="J30" s="6">
-        <v>0</v>
-      </c>
-      <c r="K30" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B31" s="6">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="D31" s="6">
-        <v>40</v>
-      </c>
-      <c r="F31" s="5">
-        <v>0</v>
-      </c>
-      <c r="H31" s="6">
-        <v>1</v>
-      </c>
-      <c r="J31" s="6">
-        <v>0</v>
-      </c>
-      <c r="K31" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B32" s="6">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="D32" s="6">
-        <v>80</v>
-      </c>
-      <c r="F32" s="5">
-        <v>0</v>
-      </c>
-      <c r="H32" s="6">
-        <v>1</v>
-      </c>
-      <c r="J32" s="6">
-        <v>0</v>
-      </c>
-      <c r="K32" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B33" s="6">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="D33" s="6">
-        <v>30</v>
-      </c>
-      <c r="F33" s="5">
-        <v>0</v>
-      </c>
-      <c r="H33" s="6">
-        <v>1</v>
-      </c>
-      <c r="J33" s="6">
-        <v>0</v>
-      </c>
-      <c r="K33" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B34" s="6">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="D34" s="6">
-        <v>30</v>
-      </c>
-      <c r="F34" s="5">
-        <v>0</v>
-      </c>
-      <c r="H34" s="6">
-        <v>1</v>
-      </c>
-      <c r="J34" s="6">
-        <v>0</v>
-      </c>
-      <c r="K34" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B35" s="6">
-        <v>1</v>
-      </c>
-      <c r="D35" s="6">
-        <v>70</v>
-      </c>
-      <c r="F35" s="5">
-        <v>0</v>
-      </c>
-      <c r="H35" s="6">
-        <v>1</v>
-      </c>
-      <c r="J35" s="6">
-        <v>0</v>
-      </c>
-      <c r="K35" s="6">
-        <v>0</v>
+      <c r="D40" s="6">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
